--- a/doc/采集源定义.xlsx
+++ b/doc/采集源定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="838"/>
   </bookViews>
   <sheets>
     <sheet name="情感文章" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="140">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,147 +39,499 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>网易美肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易美妆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://lady.163.com/special/00263MOR/ladymeizhuang.html</t>
+  </si>
+  <si>
+    <t>http://lady.163.com/special/00263MOR/ladyhair.html</t>
+  </si>
+  <si>
+    <t>网易美发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易美体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易说爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易美鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://lady.163.com/special/00264A9N/huwaiyundong.html</t>
+  </si>
+  <si>
+    <t>网易户外运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易室内健身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://lady.163.com/special/00264A9N/jiankangyinshi.html</t>
+  </si>
+  <si>
+    <t>网易健康饮食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://lady.163.com/special/00261J1K/fushitoutiao.html</t>
+  </si>
+  <si>
+    <t>http://lady.163.com/special/00263MOR/ladystarface.html</t>
+  </si>
+  <si>
+    <t>明星服饰搭配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易明星造型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易新知博客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易娱乐博客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易情感博客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://clothing.lady8844.com/clothing/star/</t>
+  </si>
+  <si>
+    <t>爱美网明星装扮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://clothing.lady8844.com/clothing/school/</t>
+  </si>
+  <si>
+    <t>爱美网服饰搭配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lady8844.com/zhuanti/cz/jnhz/2006-12-01/1164952874d13918.html</t>
+  </si>
+  <si>
+    <t>爱美网彩妆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lady8844.com/shoushen/</t>
+  </si>
+  <si>
+    <t>爱美网减肥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top10文章、热门推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lady8844.com/xiufa/</t>
+  </si>
+  <si>
+    <t>爱美网美发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://lady.163.com/special/00263MOR/shuoai.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://fashion.163.com/special/shoes/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://eladies.sina.com.cn/feel/koushu/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新浪情感口述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.163.com/sense.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://lady.163.com/special/00263MOR/ladyhufu.html</t>
-  </si>
-  <si>
-    <t>网易美肤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网易美妆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://lady.163.com/special/00263MOR/ladymeizhuang.html</t>
-  </si>
-  <si>
-    <t>http://lady.163.com/special/00263MOR/ladyhair.html</t>
-  </si>
-  <si>
-    <t>网易美发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://lady.qq.com/emo/emo1/emo11/dskjsj.htm</t>
+  </si>
+  <si>
+    <t>腾讯单身空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://women.sohu.com/love-story/index.shtml</t>
+  </si>
+  <si>
+    <t>搜狐甲乙丙丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://women.sohu.com/yixuemeironghuli/</t>
+  </si>
+  <si>
+    <t>搜狐医学美容护理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://women.sohu.com/meifu.shtml</t>
+  </si>
+  <si>
+    <t>搜狐护肤中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://women.sohu.com/caizhuang.shtml</t>
+  </si>
+  <si>
+    <t>搜狐魅力彩妆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://women.sohu.com/meifa.shtml</t>
+  </si>
+  <si>
+    <t>搜狐美发造型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://women.sohu.com/meitijianfei/</t>
+  </si>
+  <si>
+    <t>搜狐美体减肥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://women.sohu.com/bigstar/</t>
+  </si>
+  <si>
+    <t>搜狐明星fashin秀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://women.sohu.com/lovestory/</t>
+  </si>
+  <si>
+    <t>搜狐爱情故事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://women.sohu.com/xiebao.shtml</t>
+  </si>
+  <si>
+    <t>搜狐鞋和包包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sports.39.net/skjs/</t>
+  </si>
+  <si>
+    <t>39健康网时刻健身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sports.39.net/ydxm/</t>
+  </si>
+  <si>
+    <t>39健康网运动健身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://health.sina.com.cn/yinshi/index.html</t>
+  </si>
+  <si>
+    <t>新浪饮食健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.163.com/health.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://health.pclady.com.cn/ysjk/</t>
+  </si>
+  <si>
+    <t>太平洋女性网营养饮食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://9night.kimiss.com/catalog/1/</t>
+  </si>
+  <si>
+    <t>闺蜜网护肤秘诀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.taobao.com/catalog/10825013.htm?spm=843.118522.235894.27</t>
+  </si>
+  <si>
+    <t>淘宝美妆美肤论坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.taobao.com/catalog/10825011.htm</t>
+  </si>
+  <si>
+    <t>淘宝美妆美妆论坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://eladies.sina.com.cn/beauty/skincare/</t>
+  </si>
+  <si>
+    <t>新浪护肤教室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://eladies.sina.com.cn/beauty/makeup/</t>
+  </si>
+  <si>
+    <t>新浪化妆教室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://eladies.sina.com.cn/beauty/hairdressing/</t>
+  </si>
+  <si>
+    <t>新浪美发教室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://lady.163.com/special/00263MOR/ladyfitlist.html</t>
-  </si>
-  <si>
-    <t>网易美体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://lady.163.com/special/00263MOR/shuoai.html</t>
-  </si>
-  <si>
-    <t>网易说爱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://fashion.163.com/special/shoes/</t>
-  </si>
-  <si>
-    <t>网易美鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://lady.163.com/special/00264A9N/huwaiyundong.html</t>
-  </si>
-  <si>
-    <t>网易户外运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://fitness.pclady.com.cn/zt/</t>
+  </si>
+  <si>
+    <t>太平洋女性网美体专题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://lady.qq.com/beauty/beauty1/llryxsj.htm</t>
+  </si>
+  <si>
+    <t>腾讯护肤养颜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://lady.qq.com/beauty/beauty2/czjqsj.htm</t>
+  </si>
+  <si>
+    <t>腾讯彩妆技巧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://lady.qq.com/xfsl/fx/drDIY/diyxsj.htm</t>
+  </si>
+  <si>
+    <t>腾讯美发达人DIY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://lady.qq.com/diet/diet3/sthf.htm</t>
+  </si>
+  <si>
+    <t>腾讯美体养生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://lady.qq.com/l/TrendsHealth/yysh/hsch/list2011111018316.htm</t>
+  </si>
+  <si>
+    <t>腾讯好食吃货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://lady.qq.com/style/renwuzf/people3.htm</t>
+  </si>
+  <si>
+    <t>腾讯衣流人物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://lady.qq.com/style/style07/peijian3.htm</t>
+  </si>
+  <si>
+    <t>腾讯扮靓饰族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://dress.pclady.com.cn/fashion/</t>
+  </si>
+  <si>
+    <t>太平洋女性明星风尚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://dress.pclady.com.cn/style/</t>
+  </si>
+  <si>
+    <t>太平洋流行搭配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.trends.com.cn/fashion/shoe/index.shtml</t>
+  </si>
+  <si>
+    <t>时尚网鞋包配饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.trends.com.cn/fashion/match/index.shtml</t>
+  </si>
+  <si>
+    <t>时尚网服饰速配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://fashion.rayli.com.cn/accessories/C0002002010.html</t>
+  </si>
+  <si>
+    <t>瑞丽网鞋靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://eladies.sina.com.cn/fat/yaofu/</t>
+  </si>
+  <si>
+    <t>新浪减肥整形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://lady.qq.com/diet/diet8/diet81/ydjflb.htm</t>
+  </si>
+  <si>
+    <t>腾讯运动减肥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://beauty.rayli.com.cn/bodycare/C0003018001.html</t>
+  </si>
+  <si>
+    <t>瑞丽我型我塑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://health.pclady.com.cn/bj/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平洋女性网养生保健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新浪健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://health.sohu.com/jiatingbaojian.shtml</t>
+  </si>
+  <si>
+    <t>搜狐保健常识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.163.com/ent.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://roll.ent.sina.com.cn/blog/bagua/index.shtml</t>
+  </si>
+  <si>
+    <t>新浪娱乐八卦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ent.qq.com/l/newxw/starviews/list20100525165620.htm</t>
+  </si>
+  <si>
+    <t>腾讯明星评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blogz.sohu.com/index/c3161.shtml</t>
+  </si>
+  <si>
+    <t>搜狐娱评八卦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.163.com/know.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.qq.com/thought/sixiangmb/newest.htm</t>
+  </si>
+  <si>
+    <t>腾讯思想博文汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://play.aili.com/tanxian/</t>
+  </si>
+  <si>
+    <t>爱丽网探险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://play.aili.com/jianshenfang/</t>
+  </si>
+  <si>
+    <t>爱丽网健身房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.iouter.com/c20.aspx</t>
+  </si>
+  <si>
+    <t>中国户外运动网户外知道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://health.sina.com.cn/all/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://lady.163.com/special/00264A9N/shineijianshen.html</t>
-  </si>
-  <si>
-    <t>网易室内健身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://lady.163.com/special/00264A9N/jiankangyinshi.html</t>
-  </si>
-  <si>
-    <t>网易健康饮食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://lady.163.com/special/00261J1K/fushitoutiao.html</t>
-  </si>
-  <si>
-    <t>http://lady.163.com/special/00263MOR/ladystarface.html</t>
-  </si>
-  <si>
-    <t>明星服饰搭配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网易明星造型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网易新知博客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://blog.163.com/know.html</t>
-  </si>
-  <si>
-    <t>http://blog.163.com/ent.html</t>
-  </si>
-  <si>
-    <t>网易娱乐博客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://blog.163.com/sense.html</t>
-  </si>
-  <si>
-    <t>网易情感博客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://blog.163.com/health.html</t>
-  </si>
-  <si>
-    <t>网易健康</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://clothing.lady8844.com/clothing/star/</t>
-  </si>
-  <si>
-    <t>爱美网明星装扮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://clothing.lady8844.com/clothing/school/</t>
-  </si>
-  <si>
-    <t>爱美网服饰搭配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lady8844.com/zhuanti/cz/jnhz/2006-12-01/1164952874d13918.html</t>
-  </si>
-  <si>
-    <t>爱美网彩妆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lady8844.com/shoushen/</t>
-  </si>
-  <si>
-    <t>爱美网减肥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Top10文章、热门推荐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lady8844.com/xiufa/</t>
-  </si>
-  <si>
-    <t>爱美网美发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jthysh.com/09/fashion/title.asp?col=3701</t>
+  </si>
+  <si>
+    <t>家庭好医生室内健身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +539,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +590,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -265,7 +650,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,6 +668,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -579,19 +982,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="55.125" customWidth="1"/>
-    <col min="2" max="2" width="93.375" customWidth="1"/>
+    <col min="2" max="2" width="65.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,71 +1002,90 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="9" customFormat="1">
+      <c r="A4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="9" customFormat="1">
+      <c r="A5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="9" customFormat="1">
+      <c r="A6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="9" customFormat="1">
+      <c r="A7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
@@ -813,17 +1235,22 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -842,10 +1269,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="10" customFormat="1">
+      <c r="A3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="10" customFormat="1">
+      <c r="A4" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="10" customFormat="1">
+      <c r="A5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -856,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -878,10 +1329,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="10" customFormat="1">
+      <c r="A3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="10" customFormat="1">
+      <c r="A4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="10" customFormat="1">
+      <c r="A5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -892,32 +1367,56 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="50.5" customWidth="1"/>
-    <col min="2" max="2" width="111.875" customWidth="1"/>
+    <col min="2" max="2" width="70.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="10" customFormat="1">
+      <c r="A4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="10" customFormat="1">
+      <c r="A5" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="10" customFormat="1">
+      <c r="A6" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -928,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -950,30 +1449,43 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-    </row>
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="10" customFormat="1">
+      <c r="A3" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="10" customFormat="1"/>
+    <row r="5" spans="1:2" s="10" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="60.75" customWidth="1"/>
-    <col min="2" max="2" width="88.5" customWidth="1"/>
+    <col min="2" max="2" width="63.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -986,30 +1498,57 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="10" customFormat="1">
+      <c r="A4" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="10" customFormat="1">
+      <c r="A5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="34.375" customWidth="1"/>
+    <col min="2" max="2" width="51.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1022,30 +1561,61 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="10" customFormat="1">
+      <c r="A4" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="10" customFormat="1">
+      <c r="A5" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="9" customFormat="1"/>
+    <row r="7" spans="1:2" s="9" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="52.125" customWidth="1"/>
-    <col min="2" max="2" width="103.125" customWidth="1"/>
+    <col min="2" max="2" width="68.75" customWidth="1"/>
     <col min="3" max="3" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1059,13 +1629,37 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="10" customFormat="1">
+      <c r="A3" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="10" customFormat="1">
+      <c r="A4" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="10" customFormat="1">
+      <c r="A5" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1076,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1088,11 +1682,16 @@
     <col min="2" max="2" width="48.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
+    <row r="1" spans="1:2" s="10" customFormat="1">
+      <c r="A1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="10" customFormat="1"/>
+    <row r="3" spans="1:2" s="10" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1101,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1123,25 +1722,70 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="10" customFormat="1">
+      <c r="A3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="10" customFormat="1">
+      <c r="A4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="10" customFormat="1">
+      <c r="A5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="9" customFormat="1">
+      <c r="A6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="9" customFormat="1">
+      <c r="A7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="9" customFormat="1"/>
+    <row r="9" spans="1:2" s="9" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1160,18 +1804,50 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="10" customFormat="1">
+      <c r="A4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="10" customFormat="1">
+      <c r="A5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="10" customFormat="1">
+      <c r="A6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="9" customFormat="1">
+      <c r="A7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1183,16 +1859,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="50.375" customWidth="1"/>
-    <col min="2" max="2" width="137" customWidth="1"/>
+    <col min="2" max="2" width="73.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1205,18 +1881,42 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="10" customFormat="1">
+      <c r="A4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="10" customFormat="1">
+      <c r="A5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="10" customFormat="1">
+      <c r="A6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1227,10 +1927,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1249,24 +1949,51 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="10" customFormat="1">
+      <c r="A3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="10" customFormat="1">
+      <c r="A4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="10" customFormat="1">
+      <c r="A5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1285,20 +2012,44 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" s="10" customFormat="1">
+      <c r="A4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="10" customFormat="1">
+      <c r="A5" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="10" customFormat="1">
+      <c r="A6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1308,10 +2059,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1330,30 +2081,57 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="10" customFormat="1">
+      <c r="A3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="10" customFormat="1">
+      <c r="A4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="10" customFormat="1">
+      <c r="A5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1"/>
-    <col min="2" max="2" width="119.75" customWidth="1"/>
+    <col min="2" max="2" width="72.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1366,14 +2144,41 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="10" customFormat="1">
+      <c r="A3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="10" customFormat="1">
+      <c r="A4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="10" customFormat="1">
+      <c r="A5" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>